--- a/team_specific_matrix/Champion Chris._B.xlsx
+++ b/team_specific_matrix/Champion Chris._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2142857142857143</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04761904761904762</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.119047619047619</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04761904761904762</v>
+        <v>0.03389830508474576</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04166666666666666</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.875</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.08333333333333333</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2857142857142857</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04166666666666666</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04166666666666666</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2916666666666667</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="R6">
-        <v>0.04166666666666666</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08333333333333333</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2083333333333333</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="R7">
-        <v>0.125</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="S7">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09259259259259259</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.01851851851851852</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1481481481481481</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01851851851851852</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1851851851851852</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="R8">
-        <v>0.09259259259259259</v>
+        <v>0.1</v>
       </c>
       <c r="S8">
-        <v>0.4444444444444444</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03333333333333333</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2666666666666667</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2333333333333333</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R9">
-        <v>0.1333333333333333</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="S9">
         <v>0.3333333333333333</v>
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08681672025723473</v>
+        <v>0.07115384615384615</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.022508038585209</v>
+        <v>0.02115384615384616</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03215434083601286</v>
+        <v>0.04423076923076923</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1672025723472669</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009646302250803859</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.3247588424437299</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="R10">
-        <v>0.08038585209003216</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="S10">
-        <v>0.2765273311897106</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2105263157894737</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05263157894736842</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="K11">
-        <v>0.2368421052631579</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7222222222222222</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1111111111111111</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1153846153846154</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="I15">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
       <c r="J15">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1538461538461539</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1379310344827586</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="J16">
-        <v>0.7586206896551724</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.103448275862069</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01574803149606299</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.09448818897637795</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="I17">
-        <v>0.1102362204724409</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="J17">
-        <v>0.6456692913385826</v>
+        <v>0.614406779661017</v>
       </c>
       <c r="K17">
-        <v>0.02362204724409449</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007874015748031496</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03937007874015748</v>
+        <v>0.04661016949152542</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.06299212598425197</v>
+        <v>0.0635593220338983</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1466,22 +1466,22 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="J18">
-        <v>0.5263157894736842</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="K18">
-        <v>0.02631578947368421</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02631578947368421</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1052631578947368</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01104972375690608</v>
+        <v>0.01006711409395973</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1657458563535912</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="I19">
-        <v>0.04419889502762431</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="J19">
-        <v>0.4696132596685083</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="K19">
-        <v>0.138121546961326</v>
+        <v>0.1107382550335571</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.005524861878453038</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06077348066298342</v>
+        <v>0.06040268456375839</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1049723756906077</v>
+        <v>0.08724832214765101</v>
       </c>
     </row>
   </sheetData>
